--- a/data/trans_bre/P2B_R-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>7.428169579912875</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.586365162929622</v>
+        <v>2.586365162929616</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4298489236470788</v>
@@ -649,7 +649,7 @@
         <v>0.1689994814215699</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.07075225008694136</v>
+        <v>0.07075225008694119</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.042608143968839</v>
+        <v>4.771304772750907</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.218791230658167</v>
+        <v>-4.690943114642993</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.09629866013962</v>
+        <v>3.135195472752705</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.188791393079206</v>
+        <v>-4.296766874538386</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1453929625426405</v>
+        <v>0.1788558458538091</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.07107788633202532</v>
+        <v>-0.07654555800672305</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06749309019645286</v>
+        <v>0.06660950348054843</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.1011337070099523</v>
+        <v>-0.1010357267024273</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.6747524361729</v>
+        <v>14.64007397013616</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.107992688819046</v>
+        <v>4.838868165505525</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.04395275347993</v>
+        <v>11.70123846214689</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.825185616581694</v>
+        <v>9.189167519794699</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7217768019362882</v>
+        <v>0.7387175856147207</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09151566796503811</v>
+        <v>0.08771983803579175</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2954012642390184</v>
+        <v>0.2837832109040254</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.3047143419007072</v>
+        <v>0.2868982206814789</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.773480688153497</v>
+        <v>-3.886982822119991</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.963294545474928</v>
+        <v>-2.966549944275359</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.5915692448659536</v>
+        <v>-0.7036369223672289</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.021838678343439</v>
+        <v>-0.6251651818719902</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1628338766033352</v>
+        <v>-0.161557320985681</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.05543383614063564</v>
+        <v>-0.0548030519401637</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.01485699267660108</v>
+        <v>-0.01701823782074346</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.03197553743086767</v>
+        <v>-0.02359034537772087</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>4.08640002575823</v>
+        <v>4.097717512989924</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.020293471605791</v>
+        <v>7.043500554275933</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>9.92265873093177</v>
+        <v>9.963998422744492</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.017871059983561</v>
+        <v>8.332208692918828</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2143227506677928</v>
+        <v>0.2066920809405661</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1423662347578963</v>
+        <v>0.1436426032904632</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2753391841172917</v>
+        <v>0.2779450099998708</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3002797077598582</v>
+        <v>0.3182296172146455</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.6297631163952544</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3.149940515326033</v>
+        <v>3.149940515326039</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2213432238789153</v>
@@ -849,7 +849,7 @@
         <v>0.01470427489133032</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1443304512554211</v>
+        <v>0.1443304512554214</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5285004333890971</v>
+        <v>0.8181489055920865</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.044892155061247</v>
+        <v>0.8493479060953405</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.284367744939853</v>
+        <v>-5.350582830494183</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.464672846589208</v>
+        <v>-1.797425887036972</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.0269010253686847</v>
+        <v>0.03341957309730664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02246360817202968</v>
+        <v>0.01785562358257206</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1173344357481542</v>
+        <v>-0.1157870699105077</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.05890634202208473</v>
+        <v>-0.07498146946401214</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.189067960562861</v>
+        <v>8.653784472875504</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.96863414644227</v>
+        <v>11.93488246988397</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.520524961919656</v>
+        <v>6.542114734162426</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.599528832728131</v>
+        <v>7.117846298361067</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5077509492399945</v>
+        <v>0.4606897856043923</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2845075761265376</v>
+        <v>0.2811467468634586</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1612020465495143</v>
+        <v>0.1668243006849676</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4076728350130159</v>
+        <v>0.3662118852544704</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-7.694286073062702</v>
+        <v>-7.446434677150374</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.17661134178514</v>
+        <v>-8.068463044722755</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9740772904049769</v>
+        <v>0.7936646544397552</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-3.053044559049845</v>
+        <v>-3.233602882210638</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2939277889112653</v>
+        <v>-0.2836750582533956</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1549946299051899</v>
+        <v>-0.1468678961368314</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02190703727328492</v>
+        <v>0.01653381582835172</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1852389015004375</v>
+        <v>-0.1879256004102057</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.305888815620007</v>
+        <v>5.709623619914292</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.58413534048964</v>
+        <v>6.842242874417664</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.29010956514446</v>
+        <v>15.6074569268382</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.523120582095194</v>
+        <v>4.33664040118548</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3102909656324147</v>
+        <v>0.2838403913760763</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1609117927500955</v>
+        <v>0.145724859264091</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4614777774382412</v>
+        <v>0.4279185542475081</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3777255646756932</v>
+        <v>0.3695856155492867</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.255667717019214</v>
+        <v>1.772793784635435</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.3457814465530312</v>
+        <v>-0.5661330682735888</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.44410636246175</v>
+        <v>2.626896414255501</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.269229859732106</v>
+        <v>1.361994668732027</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.09577243047796745</v>
+        <v>0.07430506559840254</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.007878788904458728</v>
+        <v>-0.01082691313089417</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05636675642588342</v>
+        <v>0.06085088355488006</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.04781263465272351</v>
+        <v>0.0523950640462281</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.926791734745523</v>
+        <v>6.632129383630458</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.064250880600696</v>
+        <v>5.11035506533998</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.140204996842494</v>
+        <v>7.997345806311597</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.986599778517709</v>
+        <v>6.006452006439056</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3383488132007256</v>
+        <v>0.3120366581541753</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1007937032042175</v>
+        <v>0.1010422469214349</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.203461584034822</v>
+        <v>0.199151524135473</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.2620654531136609</v>
+        <v>0.2699296226252659</v>
       </c>
     </row>
     <row r="19">
